--- a/Applications/application.xlsx
+++ b/Applications/application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanmaksymiuk/Documents/PyCharmProjects/SoftwareEngineeringFinalProject/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7468B8A-CB6F-CB40-B07B-9CAE2A96EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C122F4-6767-5A4D-9ECF-41DE112E7ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>UsernameList</t>
+  </si>
+  <si>
+    <t>PasswordList</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>FileList</t>
+  </si>
+  <si>
+    <t>Bob123</t>
+  </si>
+  <si>
+    <t>123qwe</t>
+  </si>
+  <si>
+    <t>Service Manager</t>
+  </si>
+  <si>
+    <t>rw,r,r,r</t>
+  </si>
+  <si>
+    <t>ClientRequestDetails.xlsx</t>
+  </si>
+  <si>
+    <t>Jonh222</t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>FinancialRequest.xlsx</t>
+  </si>
+  <si>
+    <t>Alex456</t>
+  </si>
+  <si>
+    <t>SubTeam</t>
+  </si>
+  <si>
+    <t>RecruitmentRequest.xlsx</t>
+  </si>
+  <si>
+    <t>Draymond333</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>RequestForEventPlanning.xlsx</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,14 +416,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>